--- a/SelectedRiders.xlsx
+++ b/SelectedRiders.xlsx
@@ -1418,7 +1418,7 @@
           <t>UAE-Team Emirates</t>
         </is>
       </c>
-      <c r="CY2" s="3" t="n">
+      <c r="CY2" t="n">
         <v>2496.285714285715</v>
       </c>
     </row>
@@ -1727,8 +1727,8 @@
           <t>Movistar Team</t>
         </is>
       </c>
-      <c r="CY3" s="3" t="n">
-        <v>869.8571428571428</v>
+      <c r="CY3" t="n">
+        <v>841.5714285714286</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="4">
@@ -2036,8 +2036,8 @@
           <t>INEOS Grenadiers</t>
         </is>
       </c>
-      <c r="CY4" s="3" t="n">
-        <v>1651.285714285714</v>
+      <c r="CY4" t="n">
+        <v>1632.999999999999</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" s="4">
@@ -2345,7 +2345,7 @@
           <t>Team Jumbo-Visma</t>
         </is>
       </c>
-      <c r="CY5" s="3" t="n">
+      <c r="CY5" t="n">
         <v>2554.714285714285</v>
       </c>
     </row>
@@ -2654,8 +2654,8 @@
           <t>BORA - hansgrohe</t>
         </is>
       </c>
-      <c r="CY6" s="3" t="n">
-        <v>810.5714285714284</v>
+      <c r="CY6" t="n">
+        <v>778.8571428571427</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" s="4">
@@ -2963,8 +2963,8 @@
           <t>Team BikeExchange</t>
         </is>
       </c>
-      <c r="CY7" s="3" t="n">
-        <v>791.2857142857143</v>
+      <c r="CY7" t="n">
+        <v>773.2857142857143</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1" s="4">
@@ -3272,8 +3272,8 @@
           <t>Team Jumbo-Visma</t>
         </is>
       </c>
-      <c r="CY8" s="3" t="n">
-        <v>240.2857142857143</v>
+      <c r="CY8" t="n">
+        <v>233.5714285714286</v>
       </c>
     </row>
     <row r="9" ht="15" customHeight="1" s="4">
@@ -3581,8 +3581,8 @@
           <t>Team Arkéa Samsic</t>
         </is>
       </c>
-      <c r="CY9" s="3" t="n">
-        <v>437</v>
+      <c r="CY9" t="n">
+        <v>399.5714285714286</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1" s="4">
@@ -3890,8 +3890,8 @@
           <t>Team Jumbo-Visma</t>
         </is>
       </c>
-      <c r="CY10" s="3" t="n">
-        <v>820.142857142857</v>
+      <c r="CY10" t="n">
+        <v>792.4285714285712</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" s="4">
@@ -4199,8 +4199,8 @@
           <t>INEOS Grenadiers</t>
         </is>
       </c>
-      <c r="CY11" s="3" t="n">
-        <v>1190.714285714286</v>
+      <c r="CY11" t="n">
+        <v>1195</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" s="4">
@@ -4508,8 +4508,8 @@
           <t>INEOS Grenadiers</t>
         </is>
       </c>
-      <c r="CY12" s="3" t="n">
-        <v>442.5714285714286</v>
+      <c r="CY12" t="n">
+        <v>438.1428571428571</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" s="4">
@@ -4817,8 +4817,8 @@
           <t>Team BikeExchange</t>
         </is>
       </c>
-      <c r="CY13" s="3" t="n">
-        <v>189.2857142857143</v>
+      <c r="CY13" t="n">
+        <v>181.4285714285714</v>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1" s="4">
@@ -5126,8 +5126,8 @@
           <t>EF Education - Nippo</t>
         </is>
       </c>
-      <c r="CY14" s="3" t="n">
-        <v>760.142857142857</v>
+      <c r="CY14" t="n">
+        <v>804.4285714285711</v>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1" s="4">
@@ -5435,8 +5435,8 @@
           <t>INEOS Grenadiers</t>
         </is>
       </c>
-      <c r="CY15" s="3" t="n">
-        <v>357.0000000000001</v>
+      <c r="CY15" t="n">
+        <v>359.0000000000001</v>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1" s="4">
@@ -5744,8 +5744,8 @@
           <t>Movistar Team</t>
         </is>
       </c>
-      <c r="CY16" s="3" t="n">
-        <v>755.4285714285713</v>
+      <c r="CY16" t="n">
+        <v>778.2857142857141</v>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1" s="4">
@@ -6053,8 +6053,8 @@
           <t>BORA - hansgrohe</t>
         </is>
       </c>
-      <c r="CY17" s="3" t="n">
-        <v>54.14285714285715</v>
+      <c r="CY17" t="n">
+        <v>61.28571428571429</v>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1" s="4">
@@ -6362,8 +6362,8 @@
           <t>Israel Start-Up Nation</t>
         </is>
       </c>
-      <c r="CY18" s="3" t="n">
-        <v>160.4285714285714</v>
+      <c r="CY18" t="n">
+        <v>150.1428571428572</v>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1" s="4">
@@ -6671,8 +6671,8 @@
           <t>Israel Start-Up Nation</t>
         </is>
       </c>
-      <c r="CY19" s="3" t="n">
-        <v>458.5714285714286</v>
+      <c r="CY19" t="n">
+        <v>449.2857142857143</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" s="4">
@@ -6980,8 +6980,8 @@
           <t>Bahrain - Victorious</t>
         </is>
       </c>
-      <c r="CY20" s="3" t="n">
-        <v>914.5714285714284</v>
+      <c r="CY20" t="n">
+        <v>925.5714285714284</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" s="4">
@@ -7289,7 +7289,7 @@
           <t>Cofidis</t>
         </is>
       </c>
-      <c r="CY21" s="3" t="n">
+      <c r="CY21" t="n">
         <v>25.71428571428572</v>
       </c>
     </row>
@@ -7598,8 +7598,8 @@
           <t>Team Jumbo-Visma</t>
         </is>
       </c>
-      <c r="CY22" s="3" t="n">
-        <v>261.8571428571429</v>
+      <c r="CY22" t="n">
+        <v>285.5714285714286</v>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1" s="4">
@@ -7911,8 +7911,8 @@
           <t>Movistar Team</t>
         </is>
       </c>
-      <c r="CY23" s="3" t="n">
-        <v>1504.142857142857</v>
+      <c r="CY23" t="n">
+        <v>1533.285714285714</v>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1" s="4">
@@ -8220,7 +8220,7 @@
           <t>Team BikeExchange</t>
         </is>
       </c>
-      <c r="CY24" s="3" t="n">
+      <c r="CY24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8533,8 +8533,8 @@
           <t>Trek - Segafredo</t>
         </is>
       </c>
-      <c r="CY25" s="3" t="n">
-        <v>709.5714285714287</v>
+      <c r="CY25" t="n">
+        <v>715.5714285714287</v>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1" s="4">
@@ -8842,7 +8842,7 @@
           <t>Bahrain - Victorious</t>
         </is>
       </c>
-      <c r="CY26" s="3" t="n">
+      <c r="CY26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
           <t>EF Education - Nippo</t>
         </is>
       </c>
-      <c r="CY27" s="3" t="n">
+      <c r="CY27" t="n">
         <v>107.5714285714286</v>
       </c>
     </row>
@@ -9460,8 +9460,8 @@
           <t>Astana - Premier Tech</t>
         </is>
       </c>
-      <c r="CY28" s="3" t="n">
-        <v>443.0000000000002</v>
+      <c r="CY28" t="n">
+        <v>455.4285714285715</v>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1" s="4">
@@ -9769,7 +9769,7 @@
           <t xml:space="preserve">AG2R Citroën Team </t>
         </is>
       </c>
-      <c r="CY29" s="3" t="n">
+      <c r="CY29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10078,7 +10078,7 @@
           <t>Movistar Team</t>
         </is>
       </c>
-      <c r="CY30" s="3" t="n">
+      <c r="CY30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10387,8 +10387,8 @@
           <t>Israel Start-Up Nation</t>
         </is>
       </c>
-      <c r="CY31" s="3" t="n">
-        <v>49.42857142857142</v>
+      <c r="CY31" t="n">
+        <v>47.42857142857142</v>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1" s="4">
@@ -10696,7 +10696,7 @@
           <t>UAE-Team Emirates</t>
         </is>
       </c>
-      <c r="CY32" s="3" t="n">
+      <c r="CY32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11005,7 +11005,7 @@
           <t>Groupama - FDJ</t>
         </is>
       </c>
-      <c r="CY33" s="3" t="n">
+      <c r="CY33" t="n">
         <v>360.8571428571429</v>
       </c>
     </row>
@@ -11314,7 +11314,7 @@
           <t>Cofidis</t>
         </is>
       </c>
-      <c r="CY34" s="3" t="n">
+      <c r="CY34" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11623,7 +11623,7 @@
           <t>Bahrain - Victorious</t>
         </is>
       </c>
-      <c r="CY35" s="3" t="n">
+      <c r="CY35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11932,8 +11932,8 @@
           <t>Trek - Segafredo</t>
         </is>
       </c>
-      <c r="CY36" s="3" t="n">
-        <v>199.1428571428571</v>
+      <c r="CY36" t="n">
+        <v>198.1428571428571</v>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1" s="4">
@@ -12241,7 +12241,7 @@
           <t>Astana - Premier Tech</t>
         </is>
       </c>
-      <c r="CY37" s="3" t="n">
+      <c r="CY37" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12550,7 +12550,7 @@
           <t>Team TotalEnergies</t>
         </is>
       </c>
-      <c r="CY38" s="3" t="n">
+      <c r="CY38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12859,7 +12859,7 @@
           <t>Team Arkéa Samsic</t>
         </is>
       </c>
-      <c r="CY39" s="3" t="n">
+      <c r="CY39" t="n">
         <v>209.4285714285714</v>
       </c>
     </row>
@@ -13168,8 +13168,8 @@
           <t>UAE-Team Emirates</t>
         </is>
       </c>
-      <c r="CY40" s="3" t="n">
-        <v>414.4285714285714</v>
+      <c r="CY40" t="n">
+        <v>421.5714285714286</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1" s="4">
@@ -13477,7 +13477,7 @@
           <t>UAE-Team Emirates</t>
         </is>
       </c>
-      <c r="CY41" s="3" t="n">
+      <c r="CY41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13786,7 +13786,7 @@
           <t>UAE-Team Emirates</t>
         </is>
       </c>
-      <c r="CY42" s="3" t="n">
+      <c r="CY42" t="n">
         <v>20.85714285714286</v>
       </c>
     </row>
@@ -14095,7 +14095,7 @@
           <t>INEOS Grenadiers</t>
         </is>
       </c>
-      <c r="CY43" s="3" t="n">
+      <c r="CY43" t="n">
         <v>113.5714285714286</v>
       </c>
     </row>
@@ -14404,7 +14404,7 @@
           <t>Team DSM</t>
         </is>
       </c>
-      <c r="CY44" s="3" t="n">
+      <c r="CY44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14713,7 +14713,7 @@
           <t>Movistar Team</t>
         </is>
       </c>
-      <c r="CY45" s="3" t="n">
+      <c r="CY45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15026,7 +15026,7 @@
           <t>Team Jumbo-Visma</t>
         </is>
       </c>
-      <c r="CY46" s="3" t="n">
+      <c r="CY46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15335,7 +15335,7 @@
           <t>BORA - hansgrohe</t>
         </is>
       </c>
-      <c r="CY47" s="3" t="n">
+      <c r="CY47" t="n">
         <v>8.571428571428571</v>
       </c>
     </row>
@@ -15644,7 +15644,7 @@
           <t>Astana - Premier Tech</t>
         </is>
       </c>
-      <c r="CY48" s="3" t="n">
+      <c r="CY48" t="n">
         <v>13</v>
       </c>
     </row>
@@ -15953,8 +15953,8 @@
           <t>Team Jumbo-Visma</t>
         </is>
       </c>
-      <c r="CY49" s="3" t="n">
-        <v>2154.714285714286</v>
+      <c r="CY49" t="n">
+        <v>2183.428571428572</v>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1" s="4">
@@ -16262,7 +16262,7 @@
           <t>Trek - Segafredo</t>
         </is>
       </c>
-      <c r="CY50" s="3" t="n">
+      <c r="CY50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16571,8 +16571,8 @@
           <t>Deceuninck - Quick Step</t>
         </is>
       </c>
-      <c r="CY51" s="3" t="n">
-        <v>1101.857142857143</v>
+      <c r="CY51" t="n">
+        <v>1106.142857142857</v>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1" s="4">
@@ -16880,7 +16880,7 @@
           <t>Bahrain - Victorious</t>
         </is>
       </c>
-      <c r="CY52" s="3" t="n">
+      <c r="CY52" t="n">
         <v>133.4285714285714</v>
       </c>
     </row>
@@ -17193,7 +17193,7 @@
           <t>B&amp;B Hotels p/b KTM</t>
         </is>
       </c>
-      <c r="CY53" s="3" t="n">
+      <c r="CY53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17502,7 +17502,7 @@
           <t>EF Education - Nippo</t>
         </is>
       </c>
-      <c r="CY54" s="3" t="n">
+      <c r="CY54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17811,7 +17811,7 @@
           <t xml:space="preserve">AG2R Citroën Team </t>
         </is>
       </c>
-      <c r="CY55" s="3" t="n">
+      <c r="CY55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18120,7 +18120,7 @@
           <t xml:space="preserve">AG2R Citroën Team </t>
         </is>
       </c>
-      <c r="CY56" s="3" t="n">
+      <c r="CY56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18429,7 +18429,7 @@
           <t>Lotto Soudal</t>
         </is>
       </c>
-      <c r="CY57" s="3" t="n">
+      <c r="CY57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18738,7 +18738,7 @@
           <t>Intermarché - Wanty - Gobert Matériaux</t>
         </is>
       </c>
-      <c r="CY58" s="3" t="n">
+      <c r="CY58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19047,7 +19047,7 @@
           <t>Team TotalEnergies</t>
         </is>
       </c>
-      <c r="CY59" s="3" t="n">
+      <c r="CY59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19356,7 +19356,7 @@
           <t>Team TotalEnergies</t>
         </is>
       </c>
-      <c r="CY60" s="3" t="n">
+      <c r="CY60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19665,7 +19665,7 @@
           <t>Groupama - FDJ</t>
         </is>
       </c>
-      <c r="CY61" s="3" t="n">
+      <c r="CY61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19974,7 +19974,7 @@
           <t>Astana - Premier Tech</t>
         </is>
       </c>
-      <c r="CY62" s="3" t="n">
+      <c r="CY62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20283,7 +20283,7 @@
           <t>EF Education - Nippo</t>
         </is>
       </c>
-      <c r="CY63" s="3" t="n">
+      <c r="CY63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20592,7 +20592,7 @@
           <t>Team Qhubeka ASSOS</t>
         </is>
       </c>
-      <c r="CY64" s="3" t="n">
+      <c r="CY64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20901,7 +20901,7 @@
           <t>Team Arkéa Samsic</t>
         </is>
       </c>
-      <c r="CY65" s="3" t="n">
+      <c r="CY65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21210,7 +21210,7 @@
           <t>UAE-Team Emirates</t>
         </is>
       </c>
-      <c r="CY66" s="3" t="n">
+      <c r="CY66" t="n">
         <v>889.4285714285713</v>
       </c>
     </row>
@@ -21519,7 +21519,7 @@
           <t>Alpecin-Fenix</t>
         </is>
       </c>
-      <c r="CY67" s="3" t="n">
+      <c r="CY67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21828,7 +21828,7 @@
           <t>BORA - hansgrohe</t>
         </is>
       </c>
-      <c r="CY68" s="3" t="n">
+      <c r="CY68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22137,7 +22137,7 @@
           <t>Deceuninck - Quick Step</t>
         </is>
       </c>
-      <c r="CY69" s="3" t="n">
+      <c r="CY69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22446,7 +22446,7 @@
           <t>INEOS Grenadiers</t>
         </is>
       </c>
-      <c r="CY70" s="3" t="n">
+      <c r="CY70" t="n">
         <v>370.2857142857143</v>
       </c>
     </row>
@@ -22755,7 +22755,7 @@
           <t>Cofidis</t>
         </is>
       </c>
-      <c r="CY71" s="3" t="n">
+      <c r="CY71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23064,7 +23064,7 @@
           <t>Team TotalEnergies</t>
         </is>
       </c>
-      <c r="CY72" s="3" t="n">
+      <c r="CY72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23373,7 +23373,7 @@
           <t>Team DSM</t>
         </is>
       </c>
-      <c r="CY73" s="3" t="n">
+      <c r="CY73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23682,7 +23682,7 @@
           <t>Astana - Premier Tech</t>
         </is>
       </c>
-      <c r="CY74" s="3" t="n">
+      <c r="CY74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23991,7 +23991,7 @@
           <t>Trek - Segafredo</t>
         </is>
       </c>
-      <c r="CY75" s="3" t="n">
+      <c r="CY75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24300,7 +24300,7 @@
           <t>INEOS Grenadiers</t>
         </is>
       </c>
-      <c r="CY76" s="3" t="n">
+      <c r="CY76" t="n">
         <v>56.28571428571428</v>
       </c>
     </row>
@@ -24609,7 +24609,7 @@
           <t>Cofidis</t>
         </is>
       </c>
-      <c r="CY77" s="3" t="n">
+      <c r="CY77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24918,7 +24918,7 @@
           <t>Groupama - FDJ</t>
         </is>
       </c>
-      <c r="CY78" s="3" t="n">
+      <c r="CY78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25227,7 +25227,7 @@
           <t>Intermarché - Wanty - Gobert Matériaux</t>
         </is>
       </c>
-      <c r="CY79" s="3" t="n">
+      <c r="CY79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25536,7 +25536,7 @@
           <t>Trek - Segafredo</t>
         </is>
       </c>
-      <c r="CY80" s="3" t="n">
+      <c r="CY80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25845,7 +25845,7 @@
           <t>Intermarché - Wanty - Gobert Matériaux</t>
         </is>
       </c>
-      <c r="CY81" s="3" t="n">
+      <c r="CY81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26154,7 +26154,7 @@
           <t>EF Education - Nippo</t>
         </is>
       </c>
-      <c r="CY82" s="3" t="n">
+      <c r="CY82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26463,7 +26463,7 @@
           <t>Deceuninck - Quick Step</t>
         </is>
       </c>
-      <c r="CY83" s="3" t="n">
+      <c r="CY83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26772,7 +26772,7 @@
           <t>B&amp;B Hotels p/b KTM</t>
         </is>
       </c>
-      <c r="CY84" s="3" t="n">
+      <c r="CY84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27081,7 +27081,7 @@
           <t>Astana - Premier Tech</t>
         </is>
       </c>
-      <c r="CY85" s="3" t="n">
+      <c r="CY85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27390,7 +27390,7 @@
           <t>UAE-Team Emirates</t>
         </is>
       </c>
-      <c r="CY86" s="3" t="n">
+      <c r="CY86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27699,7 +27699,7 @@
           <t>Team Qhubeka ASSOS</t>
         </is>
       </c>
-      <c r="CY87" s="3" t="n">
+      <c r="CY87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28008,7 +28008,7 @@
           <t>UAE-Team Emirates</t>
         </is>
       </c>
-      <c r="CY88" s="3" t="n">
+      <c r="CY88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28317,7 +28317,7 @@
           <t>Cofidis</t>
         </is>
       </c>
-      <c r="CY89" s="3" t="n">
+      <c r="CY89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28626,7 +28626,7 @@
           <t xml:space="preserve">AG2R Citroën Team </t>
         </is>
       </c>
-      <c r="CY90" s="3" t="n">
+      <c r="CY90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28935,7 +28935,7 @@
           <t>Team DSM</t>
         </is>
       </c>
-      <c r="CY91" s="3" t="n">
+      <c r="CY91" t="n">
         <v>350.8571428571428</v>
       </c>
     </row>
@@ -29244,7 +29244,7 @@
           <t>Bahrain - Victorious</t>
         </is>
       </c>
-      <c r="CY92" s="3" t="n">
+      <c r="CY92" t="n">
         <v>186.5714285714286</v>
       </c>
     </row>
@@ -29553,7 +29553,7 @@
           <t>Intermarché - Wanty - Gobert Matériaux</t>
         </is>
       </c>
-      <c r="CY93" s="3" t="n">
+      <c r="CY93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29862,7 +29862,7 @@
           <t xml:space="preserve">AG2R Citroën Team </t>
         </is>
       </c>
-      <c r="CY94" s="3" t="n">
+      <c r="CY94" t="n">
         <v>693.2857142857143</v>
       </c>
     </row>
@@ -30171,7 +30171,7 @@
           <t>EF Education - Nippo</t>
         </is>
       </c>
-      <c r="CY95" s="3" t="n">
+      <c r="CY95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30480,7 +30480,7 @@
           <t>Team Qhubeka ASSOS</t>
         </is>
       </c>
-      <c r="CY96" s="3" t="n">
+      <c r="CY96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30789,7 +30789,7 @@
           <t xml:space="preserve">AG2R Citroën Team </t>
         </is>
       </c>
-      <c r="CY97" s="3" t="n">
+      <c r="CY97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31098,7 +31098,7 @@
           <t>Team BikeExchange</t>
         </is>
       </c>
-      <c r="CY98" s="3" t="n">
+      <c r="CY98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31407,7 +31407,7 @@
           <t xml:space="preserve">AG2R Citroën Team </t>
         </is>
       </c>
-      <c r="CY99" s="3" t="n">
+      <c r="CY99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31716,7 +31716,7 @@
           <t>Team Jumbo-Visma</t>
         </is>
       </c>
-      <c r="CY100" s="3" t="n">
+      <c r="CY100" t="n">
         <v>47.28571428571428</v>
       </c>
     </row>
@@ -32025,7 +32025,7 @@
           <t>Cofidis</t>
         </is>
       </c>
-      <c r="CY101" s="3" t="n">
+      <c r="CY101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32334,7 +32334,7 @@
           <t>Deceuninck - Quick Step</t>
         </is>
       </c>
-      <c r="CY102" s="3" t="n">
+      <c r="CY102" t="n">
         <v>432</v>
       </c>
     </row>
@@ -32643,7 +32643,7 @@
           <t>Astana - Premier Tech</t>
         </is>
       </c>
-      <c r="CY103" s="3" t="n">
+      <c r="CY103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32952,7 +32952,7 @@
           <t>Team Qhubeka ASSOS</t>
         </is>
       </c>
-      <c r="CY104" s="3" t="n">
+      <c r="CY104" t="n">
         <v>326.7142857142857</v>
       </c>
     </row>
@@ -33261,7 +33261,7 @@
           <t>Bahrain - Victorious</t>
         </is>
       </c>
-      <c r="CY105" s="3" t="n">
+      <c r="CY105" t="n">
         <v>49.28571428571428</v>
       </c>
     </row>
@@ -33570,7 +33570,7 @@
           <t>Deceuninck - Quick Step</t>
         </is>
       </c>
-      <c r="CY106" s="3" t="n">
+      <c r="CY106" t="n">
         <v>637.1428571428571</v>
       </c>
     </row>
@@ -33879,7 +33879,7 @@
           <t>Movistar Team</t>
         </is>
       </c>
-      <c r="CY107" s="3" t="n">
+      <c r="CY107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34188,7 +34188,7 @@
           <t>Team BikeExchange</t>
         </is>
       </c>
-      <c r="CY108" s="3" t="n">
+      <c r="CY108" t="n">
         <v>779.7142857142858</v>
       </c>
     </row>
@@ -34497,7 +34497,7 @@
           <t>Lotto Soudal</t>
         </is>
       </c>
-      <c r="CY109" s="3" t="n">
+      <c r="CY109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34806,7 +34806,7 @@
           <t>Team DSM</t>
         </is>
       </c>
-      <c r="CY110" s="3" t="n">
+      <c r="CY110" t="n">
         <v>12.14285714285714</v>
       </c>
     </row>
@@ -35119,7 +35119,7 @@
           <t>BORA - hansgrohe</t>
         </is>
       </c>
-      <c r="CY111" s="3" t="n">
+      <c r="CY111" t="n">
         <v>1170.714285714286</v>
       </c>
     </row>
@@ -35428,7 +35428,7 @@
           <t>Israel Start-Up Nation</t>
         </is>
       </c>
-      <c r="CY112" s="3" t="n">
+      <c r="CY112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35737,7 +35737,7 @@
           <t xml:space="preserve">AG2R Citroën Team </t>
         </is>
       </c>
-      <c r="CY113" s="3" t="n">
+      <c r="CY113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36046,7 +36046,7 @@
           <t>Intermarché - Wanty - Gobert Matériaux</t>
         </is>
       </c>
-      <c r="CY114" s="3" t="n">
+      <c r="CY114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36351,7 +36351,7 @@
           <t>B&amp;B Hotels p/b KTM</t>
         </is>
       </c>
-      <c r="CY115" s="3" t="n">
+      <c r="CY115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36660,7 +36660,7 @@
           <t>Groupama - FDJ</t>
         </is>
       </c>
-      <c r="CY116" s="3" t="n">
+      <c r="CY116" t="n">
         <v>380.1428571428571</v>
       </c>
     </row>
@@ -36969,7 +36969,7 @@
           <t>Israel Start-Up Nation</t>
         </is>
       </c>
-      <c r="CY117" s="3" t="n">
+      <c r="CY117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37278,7 +37278,7 @@
           <t>Team TotalEnergies</t>
         </is>
       </c>
-      <c r="CY118" s="3" t="n">
+      <c r="CY118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37587,7 +37587,7 @@
           <t>Team BikeExchange</t>
         </is>
       </c>
-      <c r="CY119" s="3" t="n">
+      <c r="CY119" t="n">
         <v>121</v>
       </c>
     </row>
@@ -37896,7 +37896,7 @@
           <t>Lotto Soudal</t>
         </is>
       </c>
-      <c r="CY120" s="3" t="n">
+      <c r="CY120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38205,7 +38205,7 @@
           <t>INEOS Grenadiers</t>
         </is>
       </c>
-      <c r="CY121" s="3" t="n">
+      <c r="CY121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38514,7 +38514,7 @@
           <t>Team BikeExchange</t>
         </is>
       </c>
-      <c r="CY122" s="3" t="n">
+      <c r="CY122" t="n">
         <v>148.5714285714286</v>
       </c>
     </row>
@@ -38823,7 +38823,7 @@
           <t>Alpecin-Fenix</t>
         </is>
       </c>
-      <c r="CY123" s="3" t="n">
+      <c r="CY123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39132,7 +39132,7 @@
           <t>B&amp;B Hotels p/b KTM</t>
         </is>
       </c>
-      <c r="CY124" s="3" t="n">
+      <c r="CY124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39441,7 +39441,7 @@
           <t>Team TotalEnergies</t>
         </is>
       </c>
-      <c r="CY125" s="3" t="n">
+      <c r="CY125" t="n">
         <v>276.2857142857143</v>
       </c>
     </row>
@@ -39750,7 +39750,7 @@
           <t>Team Arkéa Samsic</t>
         </is>
       </c>
-      <c r="CY126" s="3" t="n">
+      <c r="CY126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40059,7 +40059,7 @@
           <t>Movistar Team</t>
         </is>
       </c>
-      <c r="CY127" s="3" t="n">
+      <c r="CY127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40368,7 +40368,7 @@
           <t>Team Qhubeka ASSOS</t>
         </is>
       </c>
-      <c r="CY128" s="3" t="n">
+      <c r="CY128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40677,7 +40677,7 @@
           <t>Trek - Segafredo</t>
         </is>
       </c>
-      <c r="CY129" s="3" t="n">
+      <c r="CY129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40986,7 +40986,7 @@
           <t>Alpecin-Fenix</t>
         </is>
       </c>
-      <c r="CY130" s="3" t="n">
+      <c r="CY130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41295,7 +41295,7 @@
           <t>Alpecin-Fenix</t>
         </is>
       </c>
-      <c r="CY131" s="3" t="n">
+      <c r="CY131" t="n">
         <v>621.7142857142858</v>
       </c>
     </row>
@@ -41604,7 +41604,7 @@
           <t>Team TotalEnergies</t>
         </is>
       </c>
-      <c r="CY132" s="3" t="n">
+      <c r="CY132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41913,7 +41913,7 @@
           <t>Trek - Segafredo</t>
         </is>
       </c>
-      <c r="CY133" s="3" t="n">
+      <c r="CY133" t="n">
         <v>1430.428571428571</v>
       </c>
     </row>
@@ -42222,7 +42222,7 @@
           <t>B&amp;B Hotels p/b KTM</t>
         </is>
       </c>
-      <c r="CY134" s="3" t="n">
+      <c r="CY134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42531,7 +42531,7 @@
           <t>Team Qhubeka ASSOS</t>
         </is>
       </c>
-      <c r="CY135" s="3" t="n">
+      <c r="CY135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42840,7 +42840,7 @@
           <t>Alpecin-Fenix</t>
         </is>
       </c>
-      <c r="CY136" s="3" t="n">
+      <c r="CY136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43149,7 +43149,7 @@
           <t>BORA - hansgrohe</t>
         </is>
       </c>
-      <c r="CY137" s="3" t="n">
+      <c r="CY137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43458,7 +43458,7 @@
           <t>B&amp;B Hotels p/b KTM</t>
         </is>
       </c>
-      <c r="CY138" s="3" t="n">
+      <c r="CY138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43767,7 +43767,7 @@
           <t>Intermarché - Wanty - Gobert Matériaux</t>
         </is>
       </c>
-      <c r="CY139" s="3" t="n">
+      <c r="CY139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44076,7 +44076,7 @@
           <t>Movistar Team</t>
         </is>
       </c>
-      <c r="CY140" s="3" t="n">
+      <c r="CY140" t="n">
         <v>28.57142857142857</v>
       </c>
     </row>
@@ -44385,7 +44385,7 @@
           <t>Team DSM</t>
         </is>
       </c>
-      <c r="CY141" s="3" t="n">
+      <c r="CY141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44694,7 +44694,7 @@
           <t>Team BikeExchange</t>
         </is>
       </c>
-      <c r="CY142" s="3" t="n">
+      <c r="CY142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45003,7 +45003,7 @@
           <t>Deceuninck - Quick Step</t>
         </is>
       </c>
-      <c r="CY143" s="3" t="n">
+      <c r="CY143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45312,7 +45312,7 @@
           <t>Lotto Soudal</t>
         </is>
       </c>
-      <c r="CY144" s="3" t="n">
+      <c r="CY144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45621,7 +45621,7 @@
           <t>Team Arkéa Samsic</t>
         </is>
       </c>
-      <c r="CY145" s="3" t="n">
+      <c r="CY145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -45930,7 +45930,7 @@
           <t>Israel Start-Up Nation</t>
         </is>
       </c>
-      <c r="CY146" s="3" t="n">
+      <c r="CY146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46239,7 +46239,7 @@
           <t>Team Jumbo-Visma</t>
         </is>
       </c>
-      <c r="CY147" s="3" t="n">
+      <c r="CY147" t="n">
         <v>62.28571428571428</v>
       </c>
     </row>
@@ -46548,7 +46548,7 @@
           <t>BORA - hansgrohe</t>
         </is>
       </c>
-      <c r="CY148" s="3" t="n">
+      <c r="CY148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -46857,7 +46857,7 @@
           <t>Cofidis</t>
         </is>
       </c>
-      <c r="CY149" s="3" t="n">
+      <c r="CY149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47166,7 +47166,7 @@
           <t>Deceuninck - Quick Step</t>
         </is>
       </c>
-      <c r="CY150" s="3" t="n">
+      <c r="CY150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -47475,7 +47475,7 @@
           <t>B&amp;B Hotels p/b KTM</t>
         </is>
       </c>
-      <c r="CY151" s="3" t="n">
+      <c r="CY151" t="n">
         <v>523.5714285714286</v>
       </c>
     </row>
@@ -47784,7 +47784,7 @@
           <t>Bahrain - Victorious</t>
         </is>
       </c>
-      <c r="CY152" s="3" t="n">
+      <c r="CY152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48093,7 +48093,7 @@
           <t>BORA - hansgrohe</t>
         </is>
       </c>
-      <c r="CY153" s="3" t="n">
+      <c r="CY153" t="n">
         <v>16.42857142857143</v>
       </c>
     </row>
@@ -48402,7 +48402,7 @@
           <t>Lotto Soudal</t>
         </is>
       </c>
-      <c r="CY154" s="3" t="n">
+      <c r="CY154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -48711,7 +48711,7 @@
           <t>Groupama - FDJ</t>
         </is>
       </c>
-      <c r="CY155" s="3" t="n">
+      <c r="CY155" t="n">
         <v>1525.714285714286</v>
       </c>
     </row>
@@ -49020,7 +49020,7 @@
           <t>Alpecin-Fenix</t>
         </is>
       </c>
-      <c r="CY156" s="3" t="n">
+      <c r="CY156" t="n">
         <v>881.4285714285714</v>
       </c>
     </row>
@@ -49329,7 +49329,7 @@
           <t>EF Education - Nippo</t>
         </is>
       </c>
-      <c r="CY157" s="3" t="n">
+      <c r="CY157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49638,7 +49638,7 @@
           <t>Team Qhubeka ASSOS</t>
         </is>
       </c>
-      <c r="CY158" s="3" t="n">
+      <c r="CY158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49947,7 +49947,7 @@
           <t>Team Arkéa Samsic</t>
         </is>
       </c>
-      <c r="CY159" s="3" t="n">
+      <c r="CY159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50256,7 +50256,7 @@
           <t>Team TotalEnergies</t>
         </is>
       </c>
-      <c r="CY160" s="3" t="n">
+      <c r="CY160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -50565,7 +50565,7 @@
           <t>Cofidis</t>
         </is>
       </c>
-      <c r="CY161" s="3" t="n">
+      <c r="CY161" t="n">
         <v>509.2857142857142</v>
       </c>
     </row>
@@ -50874,7 +50874,7 @@
           <t>Bahrain - Victorious</t>
         </is>
       </c>
-      <c r="CY162" s="3" t="n">
+      <c r="CY162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51183,7 +51183,7 @@
           <t>Groupama - FDJ</t>
         </is>
       </c>
-      <c r="CY163" s="3" t="n">
+      <c r="CY163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -51492,7 +51492,7 @@
           <t>Israel Start-Up Nation</t>
         </is>
       </c>
-      <c r="CY164" s="3" t="n">
+      <c r="CY164" t="n">
         <v>301.2857142857143</v>
       </c>
     </row>
@@ -51801,7 +51801,7 @@
           <t>Team DSM</t>
         </is>
       </c>
-      <c r="CY165" s="3" t="n">
+      <c r="CY165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52110,7 +52110,7 @@
           <t>Astana - Premier Tech</t>
         </is>
       </c>
-      <c r="CY166" s="3" t="n">
+      <c r="CY166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52419,7 +52419,7 @@
           <t>EF Education - Nippo</t>
         </is>
       </c>
-      <c r="CY167" s="3" t="n">
+      <c r="CY167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52728,7 +52728,7 @@
           <t>B&amp;B Hotels p/b KTM</t>
         </is>
       </c>
-      <c r="CY168" s="3" t="n">
+      <c r="CY168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53037,7 +53037,7 @@
           <t>Trek - Segafredo</t>
         </is>
       </c>
-      <c r="CY169" s="3" t="n">
+      <c r="CY169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53346,7 +53346,7 @@
           <t>Lotto Soudal</t>
         </is>
       </c>
-      <c r="CY170" s="3" t="n">
+      <c r="CY170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53655,7 +53655,7 @@
           <t>Groupama - FDJ</t>
         </is>
       </c>
-      <c r="CY171" s="3" t="n">
+      <c r="CY171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -53964,7 +53964,7 @@
           <t>Team DSM</t>
         </is>
       </c>
-      <c r="CY172" s="3" t="n">
+      <c r="CY172" t="n">
         <v>470.7142857142858</v>
       </c>
     </row>
@@ -54273,7 +54273,7 @@
           <t>Team Arkéa Samsic</t>
         </is>
       </c>
-      <c r="CY173" s="3" t="n">
+      <c r="CY173" t="n">
         <v>857.142857142857</v>
       </c>
     </row>
@@ -54582,7 +54582,7 @@
           <t>Lotto Soudal</t>
         </is>
       </c>
-      <c r="CY174" s="3" t="n">
+      <c r="CY174" t="n">
         <v>1645.714285714286</v>
       </c>
     </row>
@@ -54891,7 +54891,7 @@
           <t>Israel Start-Up Nation</t>
         </is>
       </c>
-      <c r="CY175" s="3" t="n">
+      <c r="CY175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55200,7 +55200,7 @@
           <t>Alpecin-Fenix</t>
         </is>
       </c>
-      <c r="CY176" s="3" t="n">
+      <c r="CY176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -55513,7 +55513,7 @@
           <t>Deceuninck - Quick Step</t>
         </is>
       </c>
-      <c r="CY177" s="3" t="n">
+      <c r="CY177" t="n">
         <v>154.4285714285714</v>
       </c>
     </row>
@@ -55822,7 +55822,7 @@
           <t>Team DSM</t>
         </is>
       </c>
-      <c r="CY178" s="3" t="n">
+      <c r="CY178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56131,7 +56131,7 @@
           <t>Team Arkéa Samsic</t>
         </is>
       </c>
-      <c r="CY179" s="3" t="n">
+      <c r="CY179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56440,7 +56440,7 @@
           <t>Groupama - FDJ</t>
         </is>
       </c>
-      <c r="CY180" s="3" t="n">
+      <c r="CY180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -56749,7 +56749,7 @@
           <t>Alpecin-Fenix</t>
         </is>
       </c>
-      <c r="CY181" s="3" t="n">
+      <c r="CY181" t="n">
         <v>909.5714285714286</v>
       </c>
     </row>
@@ -57058,7 +57058,7 @@
           <t>Intermarché - Wanty - Gobert Matériaux</t>
         </is>
       </c>
-      <c r="CY182" s="3" t="n">
+      <c r="CY182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -57367,7 +57367,7 @@
           <t>Lotto Soudal</t>
         </is>
       </c>
-      <c r="CY183" s="3" t="n">
+      <c r="CY183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -57676,7 +57676,7 @@
           <t>Team Qhubeka ASSOS</t>
         </is>
       </c>
-      <c r="CY184" s="3" t="n">
+      <c r="CY184" t="n">
         <v>199.8571428571428</v>
       </c>
     </row>
@@ -57985,7 +57985,7 @@
           <t>Intermarché - Wanty - Gobert Matériaux</t>
         </is>
       </c>
-      <c r="CY185" s="3" t="n">
+      <c r="CY185" t="n">
         <v>70.71428571428571</v>
       </c>
     </row>
